--- a/genshin/464444023794259680_2020-12-03_14-00-01.xlsx
+++ b/genshin/464444023794259680_2020-12-03_14-00-01.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -540,10 +556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-22 20:49:00</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44187.86736111111</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -603,10 +617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-12-21 14:26:55</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44186.60202546296</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -666,10 +678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-12-19 17:21:03</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44184.72295138889</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -766,10 +776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-12-18 13:40:18</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44183.56965277778</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -871,10 +879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-12-17 17:02:36</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44182.71013888889</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -950,10 +956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-12-16 13:06:49</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44181.54640046296</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1037,10 +1041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-12-14 17:03:14</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44179.71057870371</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1112,10 +1114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-12-14 12:03:37</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44179.50251157407</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1188,10 +1188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-12-14 11:32:39</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44179.48100694444</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1267,10 +1265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-12-14 01:13:07</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44179.05077546297</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1338,10 +1334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-12-12 01:39:04</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44177.0687962963</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1417,10 +1411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-12-11 13:14:27</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44176.55170138889</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1484,10 +1476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-12-10 12:01:27</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44175.50100694445</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1567,10 +1557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-12-10 11:27:14</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44175.47724537037</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1646,10 +1634,8 @@
           <t>3800183934</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-12-10 10:38:58</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44175.44372685185</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1725,10 +1711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-12-10 10:38:46</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44175.44358796296</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1802,10 +1786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-12-10 08:46:32</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44175.36564814814</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1873,10 +1855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-12-10 01:35:58</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44175.06664351852</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1954,10 +1934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-12-09 17:10:39</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44174.71572916667</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2025,10 +2003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-12-09 13:57:45</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44174.58177083333</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2130,10 +2106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-12-08 22:45:51</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44173.94850694444</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2211,10 +2185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-12-08 15:12:30</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44173.63368055555</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2278,10 +2250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-12-08 12:03:32</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44173.5024537037</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2357,10 +2327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-12-08 09:09:17</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44173.38144675926</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2424,10 +2392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-12-08 00:43:43</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44173.0303587963</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2496,10 +2462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-12-08 00:23:09</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44173.01607638889</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2571,10 +2535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-12-07 22:32:55</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44172.93952546296</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2642,10 +2604,8 @@
           <t>3773460620</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-12-07 22:02:27</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44172.91836805556</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2709,10 +2669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-12-07 21:01:21</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44172.8759375</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2784,10 +2742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-12-07 21:01:15</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44172.87586805555</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2878,10 +2834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-12-07 19:54:58</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44172.82983796296</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2949,10 +2903,8 @@
           <t>3788665203</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-12-07 18:31:54</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44172.77215277778</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3029,10 +2981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-12-07 18:09:30</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44172.75659722222</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3100,10 +3050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-12-07 14:39:35</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44172.61082175926</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3163,10 +3111,8 @@
           <t>3773460620</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-12-07 13:06:00</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44172.54583333333</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3240,10 +3186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-12-07 02:18:45</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44172.09635416666</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3311,10 +3255,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-12-06 22:05:36</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44171.92055555555</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3390,10 +3332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-12-06 19:17:17</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44171.80366898148</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3457,10 +3397,8 @@
           <t>3776800577</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-12-06 16:12:49</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44171.67556712963</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3530,10 +3468,8 @@
           <t>3782958395</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-12-06 04:43:54</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44171.19715277778</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3601,10 +3537,8 @@
           <t>3776800577</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-12-06 01:25:37</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44171.05945601852</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
@@ -3668,10 +3602,8 @@
           <t>3776800577</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-12-06 00:59:31</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44171.04133101852</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3747,10 +3679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-12-06 00:37:05</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44171.02575231482</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3826,10 +3756,8 @@
           <t>3776800577</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-12-05 22:25:57</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44170.9346875</v>
       </c>
       <c r="I45" t="n">
         <v>9</v>
@@ -3894,10 +3822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-12-05 22:00:58</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44170.91733796296</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3966,10 +3892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-12-05 21:36:19</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44170.90021990741</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4033,10 +3957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-12-05 20:45:09</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44170.8646875</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4112,10 +4034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-12-05 18:23:44</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44170.76648148148</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4179,10 +4099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-12-05 13:13:05</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44170.55075231481</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4249,10 +4167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-12-05 11:47:06</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44170.49104166667</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4334,10 +4250,8 @@
           <t>3779595037</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-12-05 11:13:59</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44170.46804398148</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4410,10 +4324,8 @@
           <t>3779585804</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-12-05 11:10:52</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44170.46587962963</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4481,10 +4393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-12-05 07:48:05</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44170.32505787037</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4552,10 +4462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-12-05 03:11:33</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44170.13302083333</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4619,10 +4527,8 @@
           <t>3778940863</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-12-05 02:53:44</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44170.12064814815</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4686,10 +4592,8 @@
           <t>3777862477</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-12-05 00:38:25</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44170.02667824074</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4761,10 +4665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-12-04 22:04:41</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44169.91991898148</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
@@ -4828,10 +4730,8 @@
           <t>3778033571</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-12-04 22:04:10</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44169.91956018518</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4895,10 +4795,8 @@
           <t>3775035400</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-12-04 21:45:57</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44169.90690972222</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4962,10 +4860,8 @@
           <t>3777862477</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-12-04 21:22:07</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44169.8903587963</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5041,10 +4937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-12-04 20:55:46</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44169.87206018518</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5112,10 +5006,8 @@
           <t>3773271057</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-12-04 20:39:17</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44169.86061342592</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5191,10 +5083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-12-04 19:55:06</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44169.82993055556</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5264,10 +5154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-12-04 18:50:27</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44169.78503472222</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5335,10 +5223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-12-04 17:33:04</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44169.7312962963</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5409,10 +5295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-12-04 16:53:04</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44169.70351851852</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
@@ -5480,10 +5364,8 @@
           <t>3776800577</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-12-04 16:42:57</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44169.69649305556</v>
       </c>
       <c r="I68" t="n">
         <v>6</v>
@@ -5563,10 +5445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-12-04 16:29:54</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44169.68743055555</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5634,10 +5514,8 @@
           <t>3776638890</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-12-04 15:39:39</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44169.65253472222</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5701,10 +5579,8 @@
           <t>3776632389</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-12-04 15:37:17</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44169.6508912037</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5769,10 +5645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-12-04 15:35:47</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44169.64984953704</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5836,10 +5710,8 @@
           <t>3776542861</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-12-04 14:57:27</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44169.62322916667</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5907,10 +5779,8 @@
           <t>3773460620</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-12-04 14:07:29</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44169.58853009259</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5982,10 +5852,8 @@
           <t>3773503461</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-12-04 13:41:56</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44169.57078703704</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6049,10 +5917,8 @@
           <t>3775428949</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-12-04 13:30:37</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44169.56292824074</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6124,10 +5990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-12-04 12:51:03</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44169.53545138889</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6187,10 +6051,8 @@
           <t>3776187020</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-12-04 12:40:38</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44169.52821759259</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6262,10 +6124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-12-04 12:39:43</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44169.52758101852</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6341,10 +6201,8 @@
           <t>3776168509</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-12-04 12:35:59</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44169.52498842592</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6408,10 +6266,8 @@
           <t>3773503461</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-12-04 12:05:25</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44169.50376157407</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6475,10 +6331,8 @@
           <t>3773359070</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-12-04 10:58:17</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44169.4571412037</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6546,10 +6400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-12-04 10:37:32</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44169.44273148148</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6621,10 +6473,8 @@
           <t>3773460620</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-12-04 10:15:02</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44169.42710648148</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6688,10 +6538,8 @@
           <t>3773460620</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-12-04 10:12:18</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44169.42520833333</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6755,10 +6603,8 @@
           <t>3773460620</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-12-04 09:41:28</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44169.4037962963</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6822,10 +6668,8 @@
           <t>3773489032</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-12-04 09:39:08</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44169.40217592593</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6889,10 +6733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-12-04 09:37:31</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44169.40105324074</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6956,10 +6798,8 @@
           <t>3775439013</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-12-04 09:35:42</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44169.39979166666</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7035,10 +6875,8 @@
           <t>3775506807</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-12-04 07:45:59</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44169.32359953703</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7102,10 +6940,8 @@
           <t>3775520117</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-12-04 07:22:05</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44169.30700231482</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7169,10 +7005,8 @@
           <t>3775508790</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-12-04 07:17:09</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44169.30357638889</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7248,10 +7082,8 @@
           <t>3775504072</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-12-04 07:15:44</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44169.30259259259</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7327,10 +7159,8 @@
           <t>3775506807</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-12-04 07:10:07</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44169.29869212963</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7390,10 +7220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-12-04 06:00:24</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44169.25027777778</v>
       </c>
       <c r="I95" t="n">
         <v>5</v>
@@ -7461,10 +7289,8 @@
           <t>3775208675</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-12-04 05:38:27</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44169.23503472222</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7532,10 +7358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-12-04 04:50:29</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44169.20172453704</v>
       </c>
       <c r="I97" t="n">
         <v>2</v>
@@ -7611,10 +7435,8 @@
           <t>3775439013</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-12-04 04:41:53</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44169.19575231482</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7682,10 +7504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-12-04 04:41:43</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44169.19563657408</v>
       </c>
       <c r="I99" t="n">
         <v>4</v>
@@ -7753,10 +7573,8 @@
           <t>3775428949</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-12-04 04:38:34</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44169.19344907408</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7824,10 +7642,8 @@
           <t>3775415236</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-12-04 03:38:12</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44169.15152777778</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7895,10 +7711,8 @@
           <t>3775410108</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-12-04 03:37:22</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44169.15094907407</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7966,10 +7780,8 @@
           <t>3774112871</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-12-04 03:35:22</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44169.14956018519</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8037,10 +7849,8 @@
           <t>3774112871</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-12-04 03:34:50</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44169.14918981482</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8108,10 +7918,8 @@
           <t>3775398892</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-12-04 03:31:07</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44169.1466087963</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8179,10 +7987,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-12-04 03:21:50</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44169.14016203704</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8266,10 +8072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-12-04 03:08:06</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44169.130625</v>
       </c>
       <c r="I107" t="n">
         <v>3</v>
@@ -8337,10 +8141,8 @@
           <t>3774942991</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-12-04 02:55:08</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44169.12162037037</v>
       </c>
       <c r="I108" t="n">
         <v>4</v>
@@ -8400,10 +8202,8 @@
           <t>3774942991</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-12-04 02:33:49</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44169.10681712963</v>
       </c>
       <c r="I109" t="n">
         <v>3</v>
@@ -8467,10 +8267,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-12-04 02:18:03</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44169.09586805556</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8538,10 +8336,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-12-04 02:00:23</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44169.08359953704</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8605,10 +8401,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-12-04 01:51:44</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44169.07759259259</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8672,10 +8466,8 @@
           <t>3775312676</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-12-04 01:45:45</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44169.0734375</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8751,10 +8543,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-12-04 01:42:14</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44169.07099537037</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8818,10 +8608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-12-04 01:38:09</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44169.06815972222</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8893,10 +8681,8 @@
           <t>3773460620</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-12-04 01:30:03</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44169.06253472222</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8973,10 +8759,8 @@
           <t>3775277898</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-12-04 01:24:43</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44169.05883101852</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9052,10 +8836,8 @@
           <t>3775269604</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-12-04 01:21:16</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44169.05643518519</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9131,10 +8913,8 @@
           <t>3775269098</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-12-04 01:20:27</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44169.05586805556</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9210,10 +8990,8 @@
           <t>3775268206</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-12-04 01:18:56</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44169.05481481482</v>
       </c>
       <c r="I120" t="n">
         <v>2</v>
@@ -9281,10 +9059,8 @@
           <t>3775254329</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-12-04 01:12:53</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44169.05061342593</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9360,10 +9136,8 @@
           <t>3775173930</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-12-04 01:09:56</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44169.04856481482</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9439,10 +9213,8 @@
           <t>3775041165</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-12-04 01:07:51</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44169.04711805555</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9518,10 +9290,8 @@
           <t>3775173930</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:59:33</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44169.04135416666</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9593,10 +9363,8 @@
           <t>3774982854</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:53:42</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44169.03729166667</v>
       </c>
       <c r="I125" t="n">
         <v>2</v>
@@ -9675,10 +9443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:53:32</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44169.03717592593</v>
       </c>
       <c r="I126" t="n">
         <v>7</v>
@@ -9746,10 +9512,8 @@
           <t>3775208675</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:50:37</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44169.03515046297</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9809,10 +9573,8 @@
           <t>3775187612</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:40:50</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44169.02835648148</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9876,10 +9638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:40:44</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44169.02828703704</v>
       </c>
       <c r="I129" t="n">
         <v>10</v>
@@ -9949,10 +9709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:38:24</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44169.02666666666</v>
       </c>
       <c r="I130" t="n">
         <v>3</v>
@@ -10028,10 +9786,8 @@
           <t>3775173930</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:36:34</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44169.02539351852</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10107,10 +9863,8 @@
           <t>3775176659</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:35:34</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44169.02469907407</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10178,10 +9932,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:34:01</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44169.02362268518</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10249,10 +10001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:14:22</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44169.00997685185</v>
       </c>
       <c r="I134" t="n">
         <v>6</v>
@@ -10324,10 +10074,8 @@
           <t>3773247931</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:12:27</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44169.00864583333</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10404,10 +10152,8 @@
           <t>3773247931</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:11:46</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44169.00817129629</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10484,10 +10230,8 @@
           <t>3775094968</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:09:53</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44169.00686342592</v>
       </c>
       <c r="I137" t="n">
         <v>13</v>
@@ -10551,10 +10295,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:05:04</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44169.00351851852</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10630,10 +10372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:04:00</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44169.00277777778</v>
       </c>
       <c r="I139" t="n">
         <v>12</v>
@@ -10705,10 +10445,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:03:14</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44169.00224537037</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10784,10 +10522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-12-04 00:02:20</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44169.00162037037</v>
       </c>
       <c r="I141" t="n">
         <v>7</v>
@@ -10859,10 +10595,8 @@
           <t>3775041165</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:52:50</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44168.99502314815</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10934,10 +10668,8 @@
           <t>3775035400</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:50:57</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44168.99371527778</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10997,10 +10729,8 @@
           <t>3774942991</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:43:07</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44168.98827546297</v>
       </c>
       <c r="I144" t="n">
         <v>19</v>
@@ -11076,10 +10806,8 @@
           <t>3774690448</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:39:07</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44168.98549768519</v>
       </c>
       <c r="I145" t="n">
         <v>7</v>
@@ -11147,10 +10875,8 @@
           <t>3774982854</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:37:48</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44168.98458333333</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11210,10 +10936,8 @@
           <t>3774978332</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:36:59</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44168.98401620371</v>
       </c>
       <c r="I147" t="n">
         <v>2</v>
@@ -11273,10 +10997,8 @@
           <t>3774489820</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:35:53</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44168.98325231481</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11336,10 +11058,8 @@
           <t>3774690448</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:33:18</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44168.98145833334</v>
       </c>
       <c r="I149" t="n">
         <v>9</v>
@@ -11407,10 +11127,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:31:07</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44168.97994212963</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11478,10 +11196,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:28:29</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44168.97811342592</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11545,10 +11261,8 @@
           <t>3774942991</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:26:35</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44168.97679398148</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11608,10 +11322,8 @@
           <t>3774937307</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:25:41</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44168.97616898148</v>
       </c>
       <c r="I153" t="n">
         <v>2</v>
@@ -11671,10 +11383,8 @@
           <t>3774941122</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:25:06</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44168.97576388889</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11734,10 +11444,8 @@
           <t>3774927842</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:22:30</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44168.97395833334</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11797,10 +11505,8 @@
           <t>3774925793</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:20:56</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44168.97287037037</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11876,10 +11582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:20:38</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44168.97266203703</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11947,10 +11651,8 @@
           <t>3773489032</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:14:02</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44168.96807870371</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12010,10 +11712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:09:11</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44168.96471064815</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12089,10 +11789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:06:43</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44168.96299768519</v>
       </c>
       <c r="I160" t="n">
         <v>9</v>
@@ -12164,10 +11862,8 @@
           <t>3773503461</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-12-03 23:00:31</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44168.95869212963</v>
       </c>
       <c r="I161" t="n">
         <v>2</v>
@@ -12235,10 +11931,8 @@
           <t>3774805849</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-12-03 22:51:35</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44168.95248842592</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12310,10 +12004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-12-03 22:47:13</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44168.94945601852</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12381,10 +12073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-12-03 22:33:22</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44168.93983796296</v>
       </c>
       <c r="I164" t="n">
         <v>2</v>
@@ -12454,10 +12144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-12-03 22:25:39</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44168.93447916667</v>
       </c>
       <c r="I165" t="n">
         <v>5</v>
@@ -12521,10 +12209,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-12-03 22:13:18</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44168.92590277778</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12600,10 +12286,8 @@
           <t>3774489820</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-12-03 22:06:22</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44168.92108796296</v>
       </c>
       <c r="I167" t="n">
         <v>6</v>
@@ -12663,10 +12347,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-12-03 22:04:53</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44168.92005787037</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12742,10 +12424,8 @@
           <t>3774392417</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:57:58</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44168.91525462963</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12821,10 +12501,8 @@
           <t>3774392417</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:53:36</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44168.91222222222</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12888,10 +12566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:53:16</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44168.91199074074</v>
       </c>
       <c r="I171" t="n">
         <v>75</v>
@@ -12967,10 +12643,8 @@
           <t>3774392417</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:49:32</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44168.90939814815</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13048,10 +12722,8 @@
           <t>3774392417</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:46:58</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44168.90761574074</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13115,10 +12787,8 @@
           <t>3774392417</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:44:07</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44168.90563657408</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13194,10 +12864,8 @@
           <t>3774190061</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:43:28</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44168.90518518518</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13273,10 +12941,8 @@
           <t>3774392417</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:40:06</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44168.90284722222</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13340,10 +13006,8 @@
           <t>3774392417</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:38:10</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44168.90150462963</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13421,10 +13085,8 @@
           <t>3774190061</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:37:59</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44168.90137731482</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13488,10 +13150,8 @@
           <t>3773709362</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:37:19</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44168.90091435185</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13555,10 +13215,8 @@
           <t>3774392417</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:35:54</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44168.89993055556</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13634,10 +13292,8 @@
           <t>3774506394</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:35:50</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44168.89988425926</v>
       </c>
       <c r="I181" t="n">
         <v>2</v>
@@ -13701,10 +13357,8 @@
           <t>3774489820</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:34:22</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44168.89886574074</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13780,10 +13434,8 @@
           <t>3774392417</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:33:38</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44168.89835648148</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13847,10 +13499,8 @@
           <t>3774190061</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:31:26</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44168.89682870371</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13926,10 +13576,8 @@
           <t>3774392417</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:30:52</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44168.89643518518</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13993,10 +13641,8 @@
           <t>3774190061</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:29:34</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44168.8955324074</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14060,10 +13706,8 @@
           <t>3774190061</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:28:05</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44168.89450231481</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14127,10 +13771,8 @@
           <t>3774392417</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:27:29</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44168.89408564815</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14206,10 +13848,8 @@
           <t>3774190061</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:24:25</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44168.89195601852</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14285,10 +13925,8 @@
           <t>3774190061</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:20:17</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44168.88908564814</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14364,10 +14002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:16:06</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44168.88618055556</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14435,10 +14071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:15:19</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44168.88563657407</v>
       </c>
       <c r="I192" t="n">
         <v>17</v>
@@ -14503,10 +14137,8 @@
           <t>3774392417</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:05:51</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44168.8790625</v>
       </c>
       <c r="I193" t="n">
         <v>2</v>
@@ -14570,10 +14202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-12-03 21:03:46</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44168.87761574074</v>
       </c>
       <c r="I194" t="n">
         <v>9</v>
@@ -14641,10 +14271,8 @@
           <t>3774338736</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:52:24</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44168.86972222223</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14712,10 +14340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:50:00</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44168.86805555555</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14783,10 +14409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:49:03</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44168.86739583333</v>
       </c>
       <c r="I197" t="n">
         <v>6</v>
@@ -14854,10 +14478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:43:55</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44168.86383101852</v>
       </c>
       <c r="I198" t="n">
         <v>10</v>
@@ -14929,10 +14551,8 @@
           <t>3773824616</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:39:10</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44168.86053240741</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15004,10 +14624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:36:58</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44168.85900462963</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15075,10 +14693,8 @@
           <t>3774190061</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:20:25</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44168.84751157407</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15154,10 +14770,8 @@
           <t>3774190061</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:18:57</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44168.84649305556</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15233,10 +14847,8 @@
           <t>3774190061</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:18:00</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44168.84583333333</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15312,10 +14924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:17:19</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44168.84535879629</v>
       </c>
       <c r="I204" t="n">
         <v>2</v>
@@ -15383,10 +14993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:15:50</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44168.8443287037</v>
       </c>
       <c r="I205" t="n">
         <v>93</v>
@@ -15454,10 +15062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:13:10</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44168.84247685185</v>
       </c>
       <c r="I206" t="n">
         <v>2</v>
@@ -15533,10 +15139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:11:22</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44168.84122685185</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15604,10 +15208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:09:35</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44168.83998842593</v>
       </c>
       <c r="I208" t="n">
         <v>14</v>
@@ -15679,10 +15281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:08:41</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44168.83936342593</v>
       </c>
       <c r="I209" t="n">
         <v>3</v>
@@ -15758,10 +15358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:07:41</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44168.83866898148</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15826,10 +15424,8 @@
           <t>3774190061</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:07:29</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44168.83853009259</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15893,10 +15489,8 @@
           <t>3773315968</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:07:25</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44168.83848379629</v>
       </c>
       <c r="I212" t="n">
         <v>3</v>
@@ -15968,10 +15562,8 @@
           <t>3774176974</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-12-03 20:04:50</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44168.83668981482</v>
       </c>
       <c r="I213" t="n">
         <v>3</v>
@@ -16035,10 +15627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:50:03</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44168.82642361111</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16102,10 +15692,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:49:59</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44168.82637731481</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16181,10 +15769,8 @@
           <t>3774112871</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:47:40</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44168.82476851852</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16252,10 +15838,8 @@
           <t>3774112374</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:47:13</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44168.82445601852</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16331,10 +15915,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:46:24</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44168.82388888889</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16410,10 +15992,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:46:18</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44168.82381944444</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16477,10 +16057,8 @@
           <t>3774110997</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:46:02</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44168.82363425926</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16548,10 +16126,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:45:43</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44168.82341435185</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16611,10 +16187,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:42:54</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44168.82145833333</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16678,10 +16252,8 @@
           <t>3774095986</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:41:35</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44168.82054398148</v>
       </c>
       <c r="I223" t="n">
         <v>2</v>
@@ -16753,10 +16325,8 @@
           <t>3774093317</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:41:19</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44168.8203587963</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16820,10 +16390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:38:21</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44168.81829861111</v>
       </c>
       <c r="I225" t="n">
         <v>2</v>
@@ -16895,10 +16463,8 @@
           <t>3773992886</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:36:37</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44168.8170949074</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16974,10 +16540,8 @@
           <t>3774068237</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:34:51</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44168.81586805556</v>
       </c>
       <c r="I227" t="n">
         <v>3</v>
@@ -17045,10 +16609,8 @@
           <t>3773992886</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:34:27</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44168.81559027778</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17124,10 +16686,8 @@
           <t>3773992886</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:31:53</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44168.81380787037</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17203,10 +16763,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:30:39</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44168.81295138889</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17266,10 +16824,8 @@
           <t>3773999734</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:16:12</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44168.80291666667</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17333,10 +16889,8 @@
           <t>3773992886</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:13:32</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44168.80106481481</v>
       </c>
       <c r="I232" t="n">
         <v>2</v>
@@ -17400,10 +16954,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:08:48</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44168.79777777778</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17463,10 +17015,8 @@
           <t>3773809294</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:02:35</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44168.79346064815</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
@@ -17526,10 +17076,8 @@
           <t>3773947708</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:01:02</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44168.79238425926</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17597,10 +17145,8 @@
           <t>3773809294</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-12-03 19:00:32</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44168.79203703703</v>
       </c>
       <c r="I236" t="n">
         <v>3</v>
@@ -17660,10 +17206,8 @@
           <t>3773502862</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:59:21</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44168.79121527778</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17731,10 +17275,8 @@
           <t>3773934905</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:58:44</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44168.79078703704</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17811,10 +17353,8 @@
           <t>3773460620</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:55:21</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44168.7884375</v>
       </c>
       <c r="I239" t="n">
         <v>7</v>
@@ -17878,10 +17418,8 @@
           <t>3773613933</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:54:21</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44168.78774305555</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17957,10 +17495,8 @@
           <t>3773923097</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:54:07</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44168.78758101852</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18025,10 +17561,8 @@
           <t>3773503461</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:48:09</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44168.7834375</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18092,10 +17626,8 @@
           <t>3773548181</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:46:09</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44168.78204861111</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18163,10 +17695,8 @@
           <t>3773892702</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:45:28</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44168.78157407408</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18242,10 +17772,8 @@
           <t>3773460620</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:40:34</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44168.7781712963</v>
       </c>
       <c r="I245" t="n">
         <v>2</v>
@@ -18313,10 +17841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:40:15</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44168.77795138889</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18380,10 +17906,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:39:58</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44168.77775462963</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18459,10 +17983,8 @@
           <t>3773460620</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:39:13</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44168.7772337963</v>
       </c>
       <c r="I248" t="n">
         <v>6</v>
@@ -18534,10 +18056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:37:02</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44168.77571759259</v>
       </c>
       <c r="I249" t="n">
         <v>12</v>
@@ -18601,10 +18121,8 @@
           <t>3773809294</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:36:13</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44168.77515046296</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18676,10 +18194,8 @@
           <t>3773848877</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:33:51</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44168.77350694445</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18743,10 +18259,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:31:26</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44168.77182870371</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18822,10 +18336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:31:24</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44168.77180555555</v>
       </c>
       <c r="I253" t="n">
         <v>3</v>
@@ -18889,10 +18401,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:30:53</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44168.77144675926</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18968,10 +18478,8 @@
           <t>3773247931</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:30:25</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44168.77112268518</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19047,10 +18555,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:30:19</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44168.77105324074</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19126,10 +18632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:29:04</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44168.77018518518</v>
       </c>
       <c r="I257" t="n">
         <v>8</v>
@@ -19193,10 +18697,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:29:02</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44168.77016203704</v>
       </c>
       <c r="I258" t="n">
         <v>4</v>
@@ -19272,10 +18774,8 @@
           <t>3773824616</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:26:56</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44168.7687037037</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19343,10 +18843,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:25:47</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44168.76790509259</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19422,10 +18920,8 @@
           <t>3773503461</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:24:22</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44168.76692129629</v>
       </c>
       <c r="I261" t="n">
         <v>18</v>
@@ -19493,10 +18989,8 @@
           <t>3773809340</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:22:25</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44168.76556712963</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19560,10 +19054,8 @@
           <t>3773809294</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:22:23</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44168.76554398148</v>
       </c>
       <c r="I263" t="n">
         <v>6</v>
@@ -19623,10 +19115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:21:51</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44168.76517361111</v>
       </c>
       <c r="I264" t="n">
         <v>27</v>
@@ -19690,10 +19180,8 @@
           <t>3773247931</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:18:11</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44168.76262731481</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19769,10 +19257,8 @@
           <t>3773796190</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:17:52</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44168.7624074074</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19836,10 +19322,8 @@
           <t>3773788454</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:17:17</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44168.76200231481</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19903,10 +19387,8 @@
           <t>3773791890</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:16:09</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44168.76121527778</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19970,10 +19452,8 @@
           <t>3773613933</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:15:41</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44168.7608912037</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20049,10 +19529,8 @@
           <t>3773576842</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:14:26</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44168.76002314815</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20128,10 +19606,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:13:21</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44168.75927083333</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20207,10 +19683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:12:50</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44168.75891203704</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20274,10 +19748,8 @@
           <t>3773769666</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:12:20</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44168.75856481482</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20345,10 +19817,8 @@
           <t>3773271057</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:09:15</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44168.75642361111</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20427,10 +19897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:04:00</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44168.75277777778</v>
       </c>
       <c r="I275" t="n">
         <v>45</v>
@@ -20502,10 +19970,8 @@
           <t>3773175244</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:03:46</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44168.75261574074</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20581,10 +20047,8 @@
           <t>3773747161</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:03:20</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44168.75231481482</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20648,10 +20112,8 @@
           <t>3773745670</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:02:01</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44168.75140046296</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20723,10 +20185,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:01:26</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44168.75099537037</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20802,10 +20262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:01:25</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44168.75098379629</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20869,10 +20327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:01:12</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44168.75083333333</v>
       </c>
       <c r="I281" t="n">
         <v>3</v>
@@ -20936,10 +20392,8 @@
           <t>3773416973</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-12-03 18:00:45</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44168.75052083333</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21004,10 +20458,8 @@
           <t>3773606659</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:59:27</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44168.74961805555</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21088,10 +20540,8 @@
           <t>3773723548</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:58:15</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44168.74878472222</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21163,10 +20613,8 @@
           <t>3773606659</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:56:30</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44168.74756944444</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21234,10 +20682,8 @@
           <t>3773709362</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:54:20</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44168.74606481481</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21313,10 +20759,8 @@
           <t>3773708853</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:53:51</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44168.74572916667</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21393,10 +20837,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:53:39</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44168.74559027778</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21464,10 +20906,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:53:13</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44168.74528935185</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21543,10 +20983,8 @@
           <t>3773271057</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:51:10</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44168.74386574074</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21614,10 +21052,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:50:35</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44168.74346064815</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21693,10 +21129,8 @@
           <t>3773548181</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:49:57</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44168.74302083333</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21772,10 +21206,8 @@
           <t>3773548181</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:49:41</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44168.74283564815</v>
       </c>
       <c r="I293" t="n">
         <v>2</v>
@@ -21851,10 +21283,8 @@
           <t>3773247931</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:49:27</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44168.74267361111</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21930,10 +21360,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:48:45</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44168.7421875</v>
       </c>
       <c r="I295" t="n">
         <v>4</v>
@@ -22001,10 +21429,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:47:20</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44168.74120370371</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22080,10 +21506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:46:28</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44168.74060185185</v>
       </c>
       <c r="I297" t="n">
         <v>27</v>
@@ -22155,10 +21579,8 @@
           <t>3773548181</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:44:32</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44168.73925925926</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22234,10 +21656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:44:05</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44168.73894675926</v>
       </c>
       <c r="I299" t="n">
         <v>2</v>
@@ -22313,10 +21733,8 @@
           <t>3773680882</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:43:35</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44168.73859953704</v>
       </c>
       <c r="I300" t="n">
         <v>2</v>
@@ -22392,10 +21810,8 @@
           <t>3773680526</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:43:15</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44168.73836805556</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22463,10 +21879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:41:55</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44168.73744212963</v>
       </c>
       <c r="I302" t="n">
         <v>6</v>
@@ -22527,10 +21941,8 @@
           <t>3773503461</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:41:11</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44168.73693287037</v>
       </c>
       <c r="I303" t="n">
         <v>19</v>
@@ -22594,10 +22006,8 @@
           <t>3773668120</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:40:58</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44168.73678240741</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22673,10 +22083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:40:36</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44168.73652777778</v>
       </c>
       <c r="I305" t="n">
         <v>6</v>
@@ -22748,10 +22156,8 @@
           <t>3773548181</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:40:06</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44168.73618055556</v>
       </c>
       <c r="I306" t="n">
         <v>1</v>
@@ -22827,10 +22233,8 @@
           <t>3773664839</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:39:57</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44168.73607638889</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22906,10 +22310,8 @@
           <t>3773659501</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:37:35</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44168.73443287037</v>
       </c>
       <c r="I308" t="n">
         <v>3</v>
@@ -22977,10 +22379,8 @@
           <t>3773661802</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:36:54</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44168.73395833333</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -23056,10 +22456,8 @@
           <t>3773653678</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:36:35</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44168.73373842592</v>
       </c>
       <c r="I310" t="n">
         <v>3</v>
@@ -23128,10 +22526,8 @@
           <t>3773271057</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:32:43</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44168.73105324074</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23207,10 +22603,8 @@
           <t>3773431072</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:32:14</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44168.7307175926</v>
       </c>
       <c r="I312" t="n">
         <v>5</v>
@@ -23278,10 +22672,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:31:47</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44168.7304050926</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23357,10 +22749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:29:28</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44168.72879629629</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23424,10 +22814,8 @@
           <t>3773247931</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:28:44</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44168.72828703704</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23503,10 +22891,8 @@
           <t>3773503461</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:28:22</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44168.72803240741</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23575,10 +22961,8 @@
           <t>3773633278</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:28:06</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44168.72784722222</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23639,10 +23023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:27:07</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44168.72716435185</v>
       </c>
       <c r="I318" t="n">
         <v>5</v>
@@ -23710,10 +23092,8 @@
           <t>3773469901</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:26:34</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44168.72678240741</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23781,10 +23161,8 @@
           <t>3773628130</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:26:13</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44168.72653935185</v>
       </c>
       <c r="I320" t="n">
         <v>3</v>
@@ -23860,10 +23238,8 @@
           <t>3773461912</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:25:44</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44168.72620370371</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23931,10 +23307,8 @@
           <t>3773613933</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:23:42</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44168.72479166667</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24006,10 +23380,8 @@
           <t>3773625430</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:23:29</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44168.72464120371</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24085,10 +23457,8 @@
           <t>3773300077</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:23:27</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44168.72461805555</v>
       </c>
       <c r="I324" t="n">
         <v>3</v>
@@ -24164,10 +23534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:23:16</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44168.72449074074</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24235,10 +23603,8 @@
           <t>3773613933</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:21:53</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44168.72353009259</v>
       </c>
       <c r="I326" t="n">
         <v>2</v>
@@ -24314,10 +23680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:20:02</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44168.72224537037</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24393,10 +23757,8 @@
           <t>3773503461</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:19:27</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44168.72184027778</v>
       </c>
       <c r="I328" t="n">
         <v>4</v>
@@ -24461,10 +23823,8 @@
           <t>3773606659</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:19:18</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44168.72173611111</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24536,10 +23896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:16:18</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44168.71965277778</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24611,10 +23969,8 @@
           <t>3773601374</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:15:45</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44168.71927083333</v>
       </c>
       <c r="I331" t="n">
         <v>6</v>
@@ -24678,10 +24034,8 @@
           <t>3773540316</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:15:36</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44168.71916666667</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24753,10 +24107,8 @@
           <t>3773271057</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:15:36</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44168.71916666667</v>
       </c>
       <c r="I333" t="n">
         <v>1</v>
@@ -24824,10 +24176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:14:46</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44168.71858796296</v>
       </c>
       <c r="I334" t="n">
         <v>2</v>
@@ -24903,10 +24253,8 @@
           <t>3773597095</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:14:40</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44168.71851851852</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24970,10 +24318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:14:27</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44168.71836805555</v>
       </c>
       <c r="I336" t="n">
         <v>18</v>
@@ -25049,10 +24395,8 @@
           <t>3773548181</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:13:47</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44168.71790509259</v>
       </c>
       <c r="I337" t="n">
         <v>6</v>
@@ -25129,10 +24473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:13:38</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44168.71780092592</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -25204,10 +24546,8 @@
           <t>3773503461</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:12:23</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44168.71693287037</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25275,10 +24615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:09:57</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44168.71524305556</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25346,10 +24684,8 @@
           <t>3773248132</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:09:37</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44168.71501157407</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25421,10 +24757,8 @@
           <t>3773576842</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:08:42</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44168.714375</v>
       </c>
       <c r="I342" t="n">
         <v>5</v>
@@ -25501,10 +24835,8 @@
           <t>3773271057</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-12-03 17:05:30</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44168.71215277778</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25580,10 +24912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:59:33</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44168.70802083334</v>
       </c>
       <c r="I344" t="n">
         <v>2</v>
@@ -25655,10 +24985,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:58:23</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44168.70721064815</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25732,10 +25060,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:55:07</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44168.70494212963</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25803,10 +25129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:54:38</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44168.70460648148</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25882,10 +25206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:52:14</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44168.70293981482</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25957,10 +25279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:51:05</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44168.70214120371</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26036,10 +25356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:50:42</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44168.701875</v>
       </c>
       <c r="I350" t="n">
         <v>6</v>
@@ -26107,10 +25425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:50:06</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44168.70145833334</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26182,10 +25498,8 @@
           <t>3773460620</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:48:37</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44168.70042824074</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26263,10 +25577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:47:17</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44168.69950231481</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26342,10 +25654,8 @@
           <t>3773416973</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:44:08</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44168.69731481482</v>
       </c>
       <c r="I354" t="n">
         <v>2</v>
@@ -26417,10 +25727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:41:36</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44168.69555555555</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26488,10 +25796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:41:28</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44168.69546296296</v>
       </c>
       <c r="I356" t="n">
         <v>42</v>
@@ -26555,10 +25861,8 @@
           <t>3773503461</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:41:26</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44168.69543981482</v>
       </c>
       <c r="I357" t="n">
         <v>7</v>
@@ -26622,10 +25926,8 @@
           <t>3773502862</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:40:40</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44168.69490740741</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26699,10 +26001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:40:26</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44168.69474537037</v>
       </c>
       <c r="I359" t="n">
         <v>27</v>
@@ -26762,10 +26062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:39:52</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44168.69435185185</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26833,10 +26131,8 @@
           <t>3773494686</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:37:23</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44168.69262731481</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26904,10 +26200,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:36:40</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44168.69212962963</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26979,10 +26273,8 @@
           <t>3773250528</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:36:37</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44168.6920949074</v>
       </c>
       <c r="I363" t="n">
         <v>4</v>
@@ -27050,10 +26342,8 @@
           <t>3773271057</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:35:57</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44168.69163194444</v>
       </c>
       <c r="I364" t="n">
         <v>2</v>
@@ -27121,10 +26411,8 @@
           <t>3773495583</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:34:24</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44168.69055555556</v>
       </c>
       <c r="I365" t="n">
         <v>10</v>
@@ -27196,10 +26484,8 @@
           <t>3773476781</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:34:20</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44168.69050925926</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27267,10 +26553,8 @@
           <t>3773476781</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:33:29</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44168.68991898148</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27338,10 +26622,8 @@
           <t>3773154994</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:32:55</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44168.68952546296</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27413,10 +26695,8 @@
           <t>3773483924</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:32:23</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44168.68915509259</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27485,10 +26765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:31:18</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44168.68840277778</v>
       </c>
       <c r="I370" t="n">
         <v>8</v>
@@ -27564,10 +26842,8 @@
           <t>3773250528</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:31:05</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44168.68825231482</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27631,10 +26907,8 @@
           <t>3773474989</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:31:03</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44168.68822916667</v>
       </c>
       <c r="I372" t="n">
         <v>2</v>
@@ -27698,10 +26972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:30:56</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44168.68814814815</v>
       </c>
       <c r="I373" t="n">
         <v>11</v>
@@ -27765,10 +27037,8 @@
           <t>3773474286</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:30:08</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44168.68759259259</v>
       </c>
       <c r="I374" t="n">
         <v>3</v>
@@ -27836,10 +27106,8 @@
           <t>3773474062</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:29:51</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44168.68739583333</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27915,10 +27183,8 @@
           <t>3773474033</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:29:48</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44168.68736111111</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27994,10 +27260,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:29:32</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44168.68717592592</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28073,10 +27337,8 @@
           <t>3773473496</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:29:08</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44168.68689814815</v>
       </c>
       <c r="I378" t="n">
         <v>3</v>
@@ -28144,10 +27406,8 @@
           <t>3773476781</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:27:32</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44168.68578703704</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28215,10 +27475,8 @@
           <t>3773469901</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:27:20</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44168.68564814814</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28286,10 +27544,8 @@
           <t>3773359070</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:25:38</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44168.68446759259</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
@@ -28349,10 +27605,8 @@
           <t>3773470305</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:25:09</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44168.68413194444</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -28420,10 +27674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:24:36</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44168.68375</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28491,10 +27743,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:24:30</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44168.68368055556</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28562,10 +27812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:22:36</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44168.68236111111</v>
       </c>
       <c r="I385" t="n">
         <v>3</v>
@@ -28629,10 +27877,8 @@
           <t>3773461912</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:21:20</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44168.68148148148</v>
       </c>
       <c r="I386" t="n">
         <v>10</v>
@@ -28708,10 +27954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:20:34</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44168.68094907407</v>
       </c>
       <c r="I387" t="n">
         <v>18</v>
@@ -28775,10 +28019,8 @@
           <t>3773456526</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:20:17</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44168.68075231482</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28842,10 +28084,8 @@
           <t>3773460620</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:19:39</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44168.6803125</v>
       </c>
       <c r="I389" t="n">
         <v>62</v>
@@ -28913,10 +28153,8 @@
           <t>3773250528</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:19:06</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44168.67993055555</v>
       </c>
       <c r="I390" t="n">
         <v>3</v>
@@ -28984,10 +28222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:18:46</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44168.67969907408</v>
       </c>
       <c r="I391" t="n">
         <v>3</v>
@@ -29047,10 +28283,8 @@
           <t>3773451983</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:17:43</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44168.67896990741</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29119,10 +28353,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:17:15</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44168.67864583333</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29194,10 +28426,8 @@
           <t>3773175244</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:16:24</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44168.67805555555</v>
       </c>
       <c r="I394" t="n">
         <v>7</v>
@@ -29269,10 +28499,8 @@
           <t>3773443199</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:16:01</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44168.67778935185</v>
       </c>
       <c r="I395" t="n">
         <v>66</v>
@@ -29340,10 +28568,8 @@
           <t>3773175244</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:15:57</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44168.67774305555</v>
       </c>
       <c r="I396" t="n">
         <v>7</v>
@@ -29416,10 +28642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:15:39</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44168.67753472222</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29487,10 +28711,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:14:58</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44168.67706018518</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29562,10 +28784,8 @@
           <t>3773445718</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:13:22</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44168.67594907407</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29633,10 +28853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:12:26</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44168.67530092593</v>
       </c>
       <c r="I400" t="n">
         <v>9</v>
@@ -29700,10 +28918,8 @@
           <t>3773175244</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:10:14</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44168.67377314815</v>
       </c>
       <c r="I401" t="n">
         <v>11</v>
@@ -29775,10 +28991,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:10:12</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44168.67375</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29842,10 +29056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:09:35</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44168.67332175926</v>
       </c>
       <c r="I403" t="n">
         <v>5</v>
@@ -29913,10 +29125,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:09:27</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44168.67322916666</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29980,10 +29190,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:09:07</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44168.67299768519</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30047,10 +29255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:09:03</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44168.67295138889</v>
       </c>
       <c r="I406" t="n">
         <v>44</v>
@@ -30118,10 +29324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:08:54</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44168.67284722222</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30185,10 +29389,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:08:15</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44168.67239583333</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30252,10 +29454,8 @@
           <t>3773359070</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:07:55</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44168.67216435185</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30331,10 +29531,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:07:28</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44168.67185185185</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30398,10 +29596,8 @@
           <t>3773431072</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:07:19</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44168.67174768518</v>
       </c>
       <c r="I411" t="n">
         <v>5</v>
@@ -30473,10 +29669,8 @@
           <t>3773426364</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:07:11</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44168.67165509259</v>
       </c>
       <c r="I412" t="n">
         <v>10</v>
@@ -30540,10 +29734,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:05:34</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44168.67053240741</v>
       </c>
       <c r="I413" t="n">
         <v>11</v>
@@ -30615,10 +29807,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:05:03</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44168.67017361111</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30694,10 +29884,8 @@
           <t>3773359070</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:04:09</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44168.66954861111</v>
       </c>
       <c r="I415" t="n">
         <v>4</v>
@@ -30773,10 +29961,8 @@
           <t>3773418597</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:03:59</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44168.66943287037</v>
       </c>
       <c r="I416" t="n">
         <v>6</v>
@@ -30840,10 +30026,8 @@
           <t>3773251067</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:03:13</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44168.66890046297</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -30907,10 +30091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:02:40</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44168.66851851852</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30974,10 +30156,8 @@
           <t>3773416973</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-12-03 16:01:49</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44168.66792824074</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31041,10 +30221,8 @@
           <t>3773240200</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:59:59</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44168.66665509259</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31112,10 +30290,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:59:20</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44168.6662037037</v>
       </c>
       <c r="I421" t="n">
         <v>2</v>
@@ -31179,10 +30355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:57:58</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44168.66525462963</v>
       </c>
       <c r="I422" t="n">
         <v>136</v>
@@ -31246,10 +30420,8 @@
           <t>3773175244</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:57:52</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44168.66518518519</v>
       </c>
       <c r="I423" t="n">
         <v>2</v>
@@ -31317,10 +30489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:57:37</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44168.66501157408</v>
       </c>
       <c r="I424" t="n">
         <v>16</v>
@@ -31380,10 +30550,8 @@
           <t>3773175244</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:57:17</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44168.66478009259</v>
       </c>
       <c r="I425" t="n">
         <v>2</v>
@@ -31451,10 +30619,8 @@
           <t>3773359070</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:57:17</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44168.66478009259</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31529,10 +30695,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:56:36</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44168.66430555555</v>
       </c>
       <c r="I427" t="n">
         <v>5</v>
@@ -31600,10 +30764,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:56:03</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44168.66392361111</v>
       </c>
       <c r="I428" t="n">
         <v>4</v>
@@ -31679,10 +30841,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:55:23</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44168.66346064815</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31750,10 +30910,8 @@
           <t>3773392740</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:54:05</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44168.66255787037</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31829,10 +30987,8 @@
           <t>3773391943</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:53:04</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44168.66185185185</v>
       </c>
       <c r="I431" t="n">
         <v>6</v>
@@ -31896,10 +31052,8 @@
           <t>3773391816</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:52:56</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44168.66175925926</v>
       </c>
       <c r="I432" t="n">
         <v>4</v>
@@ -31975,10 +31129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:51:57</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44168.66107638889</v>
       </c>
       <c r="I433" t="n">
         <v>3</v>
@@ -32054,10 +31206,8 @@
           <t>3773250528</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:49:43</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44168.65952546296</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32121,10 +31271,8 @@
           <t>3773250528</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:48:38</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44168.65877314815</v>
       </c>
       <c r="I435" t="n">
         <v>4</v>
@@ -32188,10 +31336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:48:20</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44168.65856481482</v>
       </c>
       <c r="I436" t="n">
         <v>1</v>
@@ -32263,10 +31409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:47:54</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44168.65826388889</v>
       </c>
       <c r="I437" t="n">
         <v>8</v>
@@ -32335,10 +31479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:47:46</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44168.65817129629</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32418,10 +31560,8 @@
           <t>3773272230</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:47:44</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44168.65814814815</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32493,10 +31633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:47:40</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44168.65810185186</v>
       </c>
       <c r="I440" t="n">
         <v>10</v>
@@ -32572,10 +31710,8 @@
           <t>3773359070</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:46:43</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44168.65744212963</v>
       </c>
       <c r="I441" t="n">
         <v>6</v>
@@ -32651,10 +31787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:46:00</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44168.65694444445</v>
       </c>
       <c r="I442" t="n">
         <v>4</v>
@@ -32718,10 +31852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:45:48</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44168.65680555555</v>
       </c>
       <c r="I443" t="n">
         <v>114</v>
@@ -32789,10 +31921,8 @@
           <t>3773374119</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:44:59</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44168.65623842592</v>
       </c>
       <c r="I444" t="n">
         <v>3</v>
@@ -32857,10 +31987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:42:35</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44168.65457175926</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32932,10 +32060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:41:46</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44168.65400462963</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33003,10 +32129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:41:06</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44168.65354166667</v>
       </c>
       <c r="I447" t="n">
         <v>1</v>
@@ -33070,10 +32194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:40:43</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44168.65327546297</v>
       </c>
       <c r="I448" t="n">
         <v>540</v>
@@ -33141,10 +32263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:39:48</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44168.65263888889</v>
       </c>
       <c r="I449" t="n">
         <v>3</v>
@@ -33222,10 +32342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:39:41</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44168.65255787037</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33293,10 +32411,8 @@
           <t>3773250528</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:39:35</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44168.65248842593</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33364,10 +32480,8 @@
           <t>3773359070</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:38:42</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44168.651875</v>
       </c>
       <c r="I452" t="n">
         <v>1</v>
@@ -33435,10 +32549,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:37:21</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44168.6509375</v>
       </c>
       <c r="I453" t="n">
         <v>3</v>
@@ -33502,10 +32614,8 @@
           <t>3773315968</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:36:20</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44168.65023148148</v>
       </c>
       <c r="I454" t="n">
         <v>4</v>
@@ -33569,10 +32679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:35:37</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44168.64973379629</v>
       </c>
       <c r="I455" t="n">
         <v>4</v>
@@ -33636,10 +32744,8 @@
           <t>3773348028</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:35:34</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44168.64969907407</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33711,10 +32817,8 @@
           <t>3773356191</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:35:03</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44168.64934027778</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33782,10 +32886,8 @@
           <t>3773345610</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:32:33</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44168.64760416667</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33857,10 +32959,8 @@
           <t>3773250528</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:30:07</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44168.64591435185</v>
       </c>
       <c r="I459" t="n">
         <v>3</v>
@@ -33924,10 +33024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:29:51</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44168.64572916667</v>
       </c>
       <c r="I460" t="n">
         <v>3</v>
@@ -33999,10 +33097,8 @@
           <t>3773329652</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:26:31</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44168.64341435185</v>
       </c>
       <c r="I461" t="n">
         <v>5</v>
@@ -34070,10 +33166,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:26:19</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44168.64327546296</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34149,10 +33243,8 @@
           <t>3773250528</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:24:22</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44168.64192129629</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34216,10 +33308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:23:54</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44168.64159722222</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34283,10 +33373,8 @@
           <t>3773315968</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:22:55</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44168.64091435185</v>
       </c>
       <c r="I465" t="n">
         <v>4</v>
@@ -34362,10 +33450,8 @@
           <t>3773304821</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:22:17</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44168.64047453704</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34441,10 +33527,8 @@
           <t>3773317710</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:22:04</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44168.64032407408</v>
       </c>
       <c r="I467" t="n">
         <v>1</v>
@@ -34508,10 +33592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:20:20</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44168.63912037037</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34587,10 +33669,8 @@
           <t>3773315968</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:19:33</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44168.63857638889</v>
       </c>
       <c r="I469" t="n">
         <v>11</v>
@@ -34666,10 +33746,8 @@
           <t>3773304821</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:17:56</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44168.6374537037</v>
       </c>
       <c r="I470" t="n">
         <v>4</v>
@@ -34737,10 +33815,8 @@
           <t>3773271057</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:17:25</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44168.6370949074</v>
       </c>
       <c r="I471" t="n">
         <v>5</v>
@@ -34804,10 +33880,8 @@
           <t>3773308661</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:17:15</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44168.63697916667</v>
       </c>
       <c r="I472" t="n">
         <v>14</v>
@@ -34875,10 +33949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:16:56</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44168.63675925926</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34942,10 +34014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:16:50</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44168.63668981481</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35021,10 +34091,8 @@
           <t>3773307012</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:15:10</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44168.63553240741</v>
       </c>
       <c r="I475" t="n">
         <v>51</v>
@@ -35088,10 +34156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:14:27</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44168.63503472223</v>
       </c>
       <c r="I476" t="n">
         <v>1</v>
@@ -35159,10 +34225,8 @@
           <t>3773272230</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:13:39</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44168.63447916666</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35230,10 +34294,8 @@
           <t>3773305245</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:12:58</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44168.63400462963</v>
       </c>
       <c r="I478" t="n">
         <v>3</v>
@@ -35301,10 +34363,8 @@
           <t>3773300077</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:11:10</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44168.63275462963</v>
       </c>
       <c r="I479" t="n">
         <v>45</v>
@@ -35372,10 +34432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:10:37</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44168.63237268518</v>
       </c>
       <c r="I480" t="n">
         <v>13</v>
@@ -35443,10 +34501,8 @@
           <t>3773243106</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:09:19</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44168.63146990741</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35510,10 +34566,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:07:29</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44168.63019675926</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35587,10 +34641,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:07:12</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44168.63</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35654,10 +34706,8 @@
           <t>3773243106</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:06:56</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44168.62981481481</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35733,10 +34783,8 @@
           <t>3773250528</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:05:00</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44168.62847222222</v>
       </c>
       <c r="I485" t="n">
         <v>2</v>
@@ -35800,10 +34848,8 @@
           <t>3773269386</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:04:36</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44168.62819444444</v>
       </c>
       <c r="I486" t="n">
         <v>2</v>
@@ -35867,10 +34913,8 @@
           <t>3773243106</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:04:34</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44168.6281712963</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35946,10 +34990,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:03:53</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44168.62769675926</v>
       </c>
       <c r="I488" t="n">
         <v>1</v>
@@ -36025,10 +35067,8 @@
           <t>3773243106</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:03:06</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44168.62715277778</v>
       </c>
       <c r="I489" t="n">
         <v>19</v>
@@ -36096,10 +35136,8 @@
           <t>3773243106</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:02:57</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44168.62704861111</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36175,10 +35213,8 @@
           <t>3773281187</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:01:28</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44168.62601851852</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36252,10 +35288,8 @@
           <t>3773243106</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-12-03 15:00:01</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44168.62501157408</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36319,10 +35353,8 @@
           <t>3773272230</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:59:18</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44168.62451388889</v>
       </c>
       <c r="I493" t="n">
         <v>3</v>
@@ -36390,10 +35422,8 @@
           <t>3773269386</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:59:07</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44168.62438657408</v>
       </c>
       <c r="I494" t="n">
         <v>3</v>
@@ -36469,10 +35499,8 @@
           <t>3773190068</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:59:02</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44168.62432870371</v>
       </c>
       <c r="I495" t="n">
         <v>2</v>
@@ -36538,10 +35566,8 @@
           <t>3773271057</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:57:31</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44168.62327546296</v>
       </c>
       <c r="I496" t="n">
         <v>2</v>
@@ -36617,10 +35643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:56:59</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44168.62290509259</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36688,10 +35712,8 @@
           <t>3773240200</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:56:57</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44168.62288194444</v>
       </c>
       <c r="I498" t="n">
         <v>25</v>
@@ -36755,10 +35777,8 @@
           <t>3773265630</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:54:07</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44168.62091435185</v>
       </c>
       <c r="I499" t="n">
         <v>7</v>
@@ -36830,10 +35850,8 @@
           <t>3773258029</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:53:08</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44168.62023148148</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36909,10 +35927,8 @@
           <t>3773248132</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:51:00</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44168.61875</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36981,10 +35997,8 @@
           <t>3773250528</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:50:55</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44168.61869212963</v>
       </c>
       <c r="I502" t="n">
         <v>2</v>
@@ -37052,10 +36066,8 @@
           <t>3773248132</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:50:25</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44168.61834490741</v>
       </c>
       <c r="I503" t="n">
         <v>12</v>
@@ -37123,10 +36135,8 @@
           <t>3773247931</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:50:08</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44168.61814814815</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37194,10 +36204,8 @@
           <t>3773251067</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:48:07</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44168.61674768518</v>
       </c>
       <c r="I505" t="n">
         <v>18</v>
@@ -37273,10 +36281,8 @@
           <t>3773250528</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:47:23</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44168.61623842592</v>
       </c>
       <c r="I506" t="n">
         <v>20</v>
@@ -37340,10 +36346,8 @@
           <t>3773190068</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:46:44</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44168.61578703704</v>
       </c>
       <c r="I507" t="n">
         <v>1</v>
@@ -37407,10 +36411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:46:34</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44168.6156712963</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37474,10 +36476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:45:46</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44168.61511574074</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37553,10 +36553,8 @@
           <t>3773243106</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:45:46</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44168.61511574074</v>
       </c>
       <c r="I510" t="n">
         <v>9</v>
@@ -37624,10 +36622,8 @@
           <t>3773175244</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:43:15</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44168.61336805556</v>
       </c>
       <c r="I511" t="n">
         <v>6</v>
@@ -37699,10 +36695,8 @@
           <t>3773240200</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:41:21</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44168.61204861111</v>
       </c>
       <c r="I512" t="n">
         <v>8</v>
@@ -37770,10 +36764,8 @@
           <t>3773226664</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:35:47</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44168.60818287037</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37849,10 +36841,8 @@
           <t>3773161212</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:35:19</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44168.6078587963</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37920,10 +36910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:35:14</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44168.60780092593</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -37993,10 +36981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:34:31</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44168.60730324074</v>
       </c>
       <c r="I516" t="n">
         <v>1</v>
@@ -38060,10 +37046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:34:13</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44168.60709490741</v>
       </c>
       <c r="I517" t="n">
         <v>20</v>
@@ -38139,10 +37123,8 @@
           <t>3773161212</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:30:39</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44168.60461805556</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38210,10 +37192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:29:52</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44168.60407407407</v>
       </c>
       <c r="I519" t="n">
         <v>24</v>
@@ -38281,10 +37261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:29:30</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44168.60381944444</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38356,10 +37334,8 @@
           <t>3773210993</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:28:00</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44168.60277777778</v>
       </c>
       <c r="I521" t="n">
         <v>7</v>
@@ -38428,10 +37404,8 @@
           <t>3773161212</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:27:54</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44168.60270833333</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38503,10 +37477,8 @@
           <t>3773161212</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:26:54</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44168.60201388889</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38582,10 +37554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:26:43</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44168.60188657408</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -38649,10 +37619,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:26:41</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44168.60186342592</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38728,10 +37696,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:26:09</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44168.60149305555</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38807,10 +37773,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:25:52</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44168.6012962963</v>
       </c>
       <c r="I527" t="n">
         <v>1</v>
@@ -38882,10 +37846,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:24:58</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44168.6006712963</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38961,10 +37923,8 @@
           <t>3773164074</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:24:52</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44168.60060185185</v>
       </c>
       <c r="I529" t="n">
         <v>2</v>
@@ -39036,10 +37996,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:24:46</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44168.60053240741</v>
       </c>
       <c r="I530" t="n">
         <v>2</v>
@@ -39111,10 +38069,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:23:58</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44168.59997685185</v>
       </c>
       <c r="I531" t="n">
         <v>1</v>
@@ -39186,10 +38142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:23:46</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44168.59983796296</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39257,10 +38211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:23:30</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44168.59965277778</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39336,10 +38288,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:23:08</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44168.59939814815</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39415,10 +38365,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:22:17</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44168.59880787037</v>
       </c>
       <c r="I535" t="n">
         <v>5</v>
@@ -39490,10 +38438,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:21:39</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44168.59836805556</v>
       </c>
       <c r="I536" t="n">
         <v>4</v>
@@ -39565,10 +38511,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:21:16</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44168.59810185185</v>
       </c>
       <c r="I537" t="n">
         <v>4</v>
@@ -39644,10 +38588,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:20:49</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44168.59778935185</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39723,10 +38665,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:20:40</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44168.59768518519</v>
       </c>
       <c r="I539" t="n">
         <v>9</v>
@@ -39802,10 +38742,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:19:32</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44168.59689814815</v>
       </c>
       <c r="I540" t="n">
         <v>25</v>
@@ -39877,10 +38815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:19:05</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44168.59658564815</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39944,10 +38880,8 @@
           <t>3773190068</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:18:54</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44168.59645833333</v>
       </c>
       <c r="I542" t="n">
         <v>1</v>
@@ -40011,10 +38945,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:18:07</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44168.59591435185</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40099,10 +39031,8 @@
           <t>3773183182</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:17:56</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44168.59578703704</v>
       </c>
       <c r="I544" t="n">
         <v>41</v>
@@ -40166,10 +39096,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:17:21</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44168.59538194445</v>
       </c>
       <c r="I545" t="n">
         <v>6</v>
@@ -40245,10 +39173,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:16:41</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44168.59491898148</v>
       </c>
       <c r="I546" t="n">
         <v>20</v>
@@ -40324,10 +39250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:16:31</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44168.59480324074</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40391,10 +39315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:16:08</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44168.59453703704</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40462,10 +39384,8 @@
           <t>3773161212</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:15:51</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44168.59434027778</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40543,10 +39463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:15:41</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44168.59422453704</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40622,10 +39540,8 @@
           <t>3773177852</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:15:39</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44168.59420138889</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40698,10 +39614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:14:36</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44168.59347222222</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40773,10 +39687,8 @@
           <t>3773177074</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:14:35</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44168.59346064815</v>
       </c>
       <c r="I553" t="n">
         <v>1</v>
@@ -40848,10 +39760,8 @@
           <t>3773176730</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:14:03</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44168.59309027778</v>
       </c>
       <c r="I554" t="n">
         <v>6</v>
@@ -40915,10 +39825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:14:01</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44168.59306712963</v>
       </c>
       <c r="I555" t="n">
         <v>7</v>
@@ -40986,10 +39894,8 @@
           <t>3773161212</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:14:01</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44168.59306712963</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41067,10 +39973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:13:25</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44168.59265046296</v>
       </c>
       <c r="I557" t="n">
         <v>13</v>
@@ -41138,10 +40042,8 @@
           <t>3773169560</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:13:13</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44168.59251157408</v>
       </c>
       <c r="I558" t="n">
         <v>1</v>
@@ -41209,10 +40111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:12:37</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44168.59209490741</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41288,10 +40188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:12:08</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44168.59175925926</v>
       </c>
       <c r="I560" t="n">
         <v>996</v>
@@ -41355,10 +40253,8 @@
           <t>3773175244</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:12:01</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44168.59167824074</v>
       </c>
       <c r="I561" t="n">
         <v>3</v>
@@ -41426,10 +40322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:11:23</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44168.59123842593</v>
       </c>
       <c r="I562" t="n">
         <v>383</v>
@@ -41497,10 +40391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:10:37</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44168.59070601852</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -41576,10 +40468,8 @@
           <t>3773164074</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:10:23</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44168.59054398148</v>
       </c>
       <c r="I564" t="n">
         <v>1</v>
@@ -41643,10 +40533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:09:52</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44168.59018518519</v>
       </c>
       <c r="I565" t="n">
         <v>28</v>
@@ -41718,10 +40606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:09:42</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44168.59006944444</v>
       </c>
       <c r="I566" t="n">
         <v>3</v>
@@ -41789,10 +40675,8 @@
           <t>3773158712</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:09:32</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44168.5899537037</v>
       </c>
       <c r="I567" t="n">
         <v>2</v>
@@ -41868,10 +40752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:09:15</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44168.58975694444</v>
       </c>
       <c r="I568" t="n">
         <v>1</v>
@@ -41935,10 +40817,8 @@
           <t>3773163086</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:09:04</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44168.58962962963</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -42006,10 +40886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:08:54</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44168.58951388889</v>
       </c>
       <c r="I570" t="n">
         <v>2</v>
@@ -42081,10 +40959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:08:54</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44168.58951388889</v>
       </c>
       <c r="I571" t="n">
         <v>140</v>
@@ -42156,10 +41032,8 @@
           <t>3773161212</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:08:50</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44168.5894675926</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42227,10 +41101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:08:48</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44168.58944444444</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42298,10 +41170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:08:34</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44168.58928240741</v>
       </c>
       <c r="I574" t="n">
         <v>1</v>
@@ -42375,10 +41245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:08:27</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44168.58920138889</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42454,10 +41322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:08:13</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44168.58903935185</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42533,10 +41399,8 @@
           <t>3773165414</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:07:59</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44168.58887731482</v>
       </c>
       <c r="I577" t="n">
         <v>2</v>
@@ -42600,10 +41464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:07:42</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44168.58868055556</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42679,10 +41541,8 @@
           <t>3773162104</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:07:39</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44168.58864583333</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42758,10 +41618,8 @@
           <t>3773154994</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:07:29</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44168.58853009259</v>
       </c>
       <c r="I580" t="n">
         <v>18</v>
@@ -42825,10 +41683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:07:10</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44168.58831018519</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42900,10 +41756,8 @@
           <t>3773156905</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:07:08</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44168.58828703704</v>
       </c>
       <c r="I582" t="n">
         <v>5</v>
@@ -42971,10 +41825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:06:49</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44168.58806712963</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43047,10 +41899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:06:49</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44168.58806712963</v>
       </c>
       <c r="I584" t="n">
         <v>3</v>
@@ -43118,10 +41968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:06:29</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44168.58783564815</v>
       </c>
       <c r="I585" t="n">
         <v>58</v>
@@ -43193,10 +42041,8 @@
           <t>3773161212</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:06:29</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44168.58783564815</v>
       </c>
       <c r="I586" t="n">
         <v>5</v>
@@ -43268,10 +42114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:06:16</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44168.58768518519</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43339,10 +42183,8 @@
           <t>3773160859</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:06:01</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44168.58751157407</v>
       </c>
       <c r="I588" t="n">
         <v>2</v>
@@ -43418,10 +42260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:04:52</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44168.58671296296</v>
       </c>
       <c r="I589" t="n">
         <v>73</v>
@@ -43493,10 +42333,8 @@
           <t>3773149956</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:04:49</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44168.58667824074</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43565,10 +42403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:04:34</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44168.58650462963</v>
       </c>
       <c r="I591" t="n">
         <v>54</v>
@@ -43636,10 +42472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:04:10</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44168.58622685185</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43712,10 +42546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:04:10</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44168.58622685185</v>
       </c>
       <c r="I593" t="n">
         <v>179</v>
@@ -43783,10 +42615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:04:06</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44168.58618055555</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43854,10 +42684,8 @@
           <t>3773148968</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:03:30</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44168.58576388889</v>
       </c>
       <c r="I595" t="n">
         <v>10</v>
@@ -43925,10 +42753,8 @@
           <t>3773148916</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:03:26</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44168.58571759259</v>
       </c>
       <c r="I596" t="n">
         <v>3</v>
@@ -43992,10 +42818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:03:09</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44168.58552083333</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -44071,10 +42895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:02:16</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44168.58490740741</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -44150,10 +42972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:02:10</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44168.58483796296</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44225,10 +43045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:02:07</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44168.58480324074</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44292,10 +43110,8 @@
           <t>3773150736</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:02:06</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44168.58479166667</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44376,10 +43192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:01:54</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44168.58465277778</v>
       </c>
       <c r="I602" t="n">
         <v>379</v>
@@ -44447,10 +43261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:01:52</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44168.58462962963</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44522,10 +43334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:01:45</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44168.58454861111</v>
       </c>
       <c r="I604" t="n">
         <v>13</v>
@@ -44597,10 +43407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:01:41</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44168.58450231481</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44679,10 +43487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:01:41</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44168.58450231481</v>
       </c>
       <c r="I606" t="n">
         <v>2</v>
@@ -44742,10 +43548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:01:34</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44168.5844212963</v>
       </c>
       <c r="I607" t="n">
         <v>2</v>
@@ -44822,10 +43626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:01:32</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44168.58439814814</v>
       </c>
       <c r="I608" t="n">
         <v>1</v>
@@ -44893,10 +43695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:01:17</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44168.58422453704</v>
       </c>
       <c r="I609" t="n">
         <v>1</v>
@@ -44972,10 +43772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:01:12</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44168.58416666667</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -45043,10 +43841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:01:09</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44168.58413194444</v>
       </c>
       <c r="I611" t="n">
         <v>334</v>
@@ -45115,10 +43911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:01:01</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44168.58403935185</v>
       </c>
       <c r="I612" t="n">
         <v>1</v>
@@ -45186,10 +43980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:00:58</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44168.58400462963</v>
       </c>
       <c r="I613" t="n">
         <v>1</v>
@@ -45253,10 +44045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:00:50</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44168.58391203704</v>
       </c>
       <c r="I614" t="n">
         <v>30</v>
@@ -45324,10 +44114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:00:50</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44168.58391203704</v>
       </c>
       <c r="I615" t="n">
         <v>2</v>
@@ -45399,10 +44187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:00:48</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44168.58388888889</v>
       </c>
       <c r="I616" t="n">
         <v>120</v>
@@ -45470,10 +44256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:00:47</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44168.58387731481</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45545,10 +44329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:00:35</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44168.58373842593</v>
       </c>
       <c r="I618" t="n">
         <v>1</v>
@@ -45622,10 +44404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:00:31</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44168.58369212963</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45701,10 +44481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:00:28</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44168.58365740741</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45776,10 +44554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:00:22</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44168.58358796296</v>
       </c>
       <c r="I621" t="n">
         <v>6</v>
@@ -45847,10 +44623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:00:20</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44168.58356481481</v>
       </c>
       <c r="I622" t="n">
         <v>9</v>
@@ -45922,10 +44696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-12-03 14:00:17</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44168.58353009259</v>
       </c>
       <c r="I623" t="n">
         <v>1</v>
